--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329DB6A-779D-41B5-B9C9-EF2978EFCE65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB7BD8-5EE8-4B6C-A558-76D81993977F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Comb</t>
   </si>
@@ -64,18 +64,6 @@
   </si>
   <si>
     <t>Avg Response Time</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>`</t>
@@ -761,16 +749,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>677.66666669999995</c:v>
+                  <c:v>67.766666669999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6034.1718499999997</c:v>
+                  <c:v>603.41718500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9270.4825469999996</c:v>
+                  <c:v>927.04825469999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18371.368900000001</c:v>
+                  <c:v>1837.1368900000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5199,16 +5187,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>467.88888889999998</c:v>
+                  <c:v>46.788888889999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6701.3591459999998</c:v>
+                  <c:v>546.58216160000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10232.366379999999</c:v>
+                  <c:v>1023.236638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28048.025030000001</c:v>
+                  <c:v>2727.301281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5671,16 +5659,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>822.66666669999995</c:v>
+                  <c:v>82.266666669999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3095.7676980000001</c:v>
+                  <c:v>309.57676980000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10612.383599999999</c:v>
+                  <c:v>1061.2383599999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19409.15897</c:v>
+                  <c:v>1940.9158970000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6172,6 +6160,27 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$47:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$27:$E$27</c:f>
@@ -6179,16 +6188,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>803.77777779999997</c:v>
+                  <c:v>80.377777780000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5465.8216160000002</c:v>
+                  <c:v>670.13591459999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11312.988670000001</c:v>
+                  <c:v>1131.298867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27273.01281</c:v>
+                  <c:v>2804.8025029999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6275,7 +6284,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6283,9 +6292,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="97000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -6314,9 +6322,9 @@
         </c:txPr>
         <c:crossAx val="528870952"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -6682,16 +6690,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>329.55555559999999</c:v>
+                  <c:v>32.955555560000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4674.2328170000001</c:v>
+                  <c:v>467.42328170000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10641.40777</c:v>
+                  <c:v>1064.1407770000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15981.319380000001</c:v>
+                  <c:v>1598.131938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7180,16 +7188,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>42.666666669999998</c:v>
+                  <c:v>4.266666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1114.3515110000001</c:v>
+                  <c:v>111.43515110000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13886.43771</c:v>
+                  <c:v>1388.643771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15695.749980000001</c:v>
+                  <c:v>1569.5749980000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7673,16 +7681,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>943.44444439999995</c:v>
+                  <c:v>94.34444443999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1485.2678350000001</c:v>
+                  <c:v>148.52678350000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11523.65301</c:v>
+                  <c:v>1152.365301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17170.193289999999</c:v>
+                  <c:v>1717.019329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8108,16 +8116,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>774.55555560000005</c:v>
+                  <c:v>77.455555560000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3583.9184780000001</c:v>
+                  <c:v>358.39184779999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10207.70055</c:v>
+                  <c:v>1020.770055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17986.177169999999</c:v>
+                  <c:v>1798.6177169999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8605,16 +8613,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>335.11111110000002</c:v>
+                  <c:v>33.511111110000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1292.9708889999999</c:v>
+                  <c:v>129.29708890000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10844.99567</c:v>
+                  <c:v>1084.4995670000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17822.036700000001</c:v>
+                  <c:v>1782.2036700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18990,16 +18998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19062,16 +19070,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19170,16 +19178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19206,16 +19214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19350,16 +19358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19458,16 +19466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19866,15 +19874,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19882,7 +19890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -19899,7 +19907,7 @@
         <v>8881</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -19916,7 +19924,7 @@
         <v>8889</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -19933,7 +19941,7 @@
         <v>8887</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -19950,7 +19958,7 @@
         <v>8905</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -19967,7 +19975,7 @@
         <v>8859</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -19984,7 +19992,7 @@
         <v>8887</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -20001,7 +20009,7 @@
         <v>8895</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -20018,7 +20026,7 @@
         <v>8894</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -20035,12 +20043,12 @@
         <v>8901</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -20056,11 +20064,8 @@
       <c r="E12">
         <v>0.26200672000000003</v>
       </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -20076,11 +20081,8 @@
       <c r="E13">
         <v>0.25709029300000003</v>
       </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -20096,11 +20098,8 @@
       <c r="E14">
         <v>0.23004402600000001</v>
       </c>
-      <c r="F14">
-        <v>25</v>
-      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -20116,11 +20115,8 @@
       <c r="E15">
         <v>0.14673609000000001</v>
       </c>
-      <c r="F15">
-        <v>40</v>
-      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -20136,11 +20132,8 @@
       <c r="E16">
         <v>0.22316855599999999</v>
       </c>
-      <c r="F16">
-        <v>55</v>
-      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -20156,11 +20149,8 @@
       <c r="E17">
         <v>0.15089469999999999</v>
       </c>
-      <c r="F17">
-        <v>55</v>
-      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -20176,14 +20166,11 @@
       <c r="E18">
         <v>0.212123899</v>
       </c>
-      <c r="F18">
-        <v>70</v>
-      </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -20199,11 +20186,8 @@
       <c r="E19">
         <v>0.228016684</v>
       </c>
-      <c r="F19">
-        <v>70</v>
-      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -20219,281 +20203,182 @@
       <c r="E20">
         <v>0.23946062000000001</v>
       </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G21">
-        <v>112.8413451</v>
-      </c>
-      <c r="H21">
-        <v>1.7891968300000001</v>
-      </c>
-      <c r="I21">
-        <v>0.558989615</v>
-      </c>
-      <c r="J21">
-        <v>0.14673609000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G22">
-        <v>63.516260160000002</v>
-      </c>
-      <c r="H22">
-        <v>3.8856077089999999</v>
-      </c>
-      <c r="I22">
-        <v>0.57853429499999998</v>
-      </c>
-      <c r="J22">
-        <v>0.212123899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G23">
-        <v>148.76524839999999</v>
-      </c>
-      <c r="H23">
-        <v>2.5604391670000002</v>
-      </c>
-      <c r="I23">
-        <v>0.57507222899999999</v>
-      </c>
-      <c r="J23">
-        <v>0.25709029300000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="G24">
-        <v>590.31877210000005</v>
-      </c>
-      <c r="H24">
-        <v>10.51546825</v>
-      </c>
-      <c r="I24">
-        <v>0.44070841199999999</v>
-      </c>
-      <c r="J24">
-        <v>0.26200672000000003</v>
-      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
       <c r="B25">
-        <v>467.88888889999998</v>
+        <f>467.8888889/10</f>
+        <v>46.788888889999996</v>
       </c>
       <c r="C25">
-        <v>6701.3591459999998</v>
+        <v>546.58216160000006</v>
       </c>
       <c r="D25">
-        <v>10232.366379999999</v>
+        <f>10232.36638/10</f>
+        <v>1023.236638</v>
       </c>
       <c r="E25">
-        <v>28048.025030000001</v>
-      </c>
-      <c r="G25">
-        <v>64.901349949999997</v>
-      </c>
-      <c r="H25">
-        <v>1.7869682929999999</v>
-      </c>
-      <c r="I25">
-        <v>0.54239523899999997</v>
-      </c>
-      <c r="J25">
-        <v>0.15089469999999999</v>
+        <v>2727.301281</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>822.66666669999995</v>
+        <v>82.266666669999992</v>
       </c>
       <c r="C26">
-        <v>3095.7676980000001</v>
+        <v>309.57676980000002</v>
       </c>
       <c r="D26">
-        <v>10612.383599999999</v>
+        <v>1061.2383599999998</v>
       </c>
       <c r="E26">
-        <v>19409.15897</v>
-      </c>
-      <c r="G26">
-        <v>63.259109309999999</v>
-      </c>
-      <c r="H26">
-        <v>3.2782800829999998</v>
-      </c>
-      <c r="I26">
-        <v>0.59715396399999998</v>
-      </c>
-      <c r="J26">
-        <v>0.228016684</v>
+        <v>1940.9158970000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27">
-        <v>803.77777779999997</v>
+        <v>80.377777780000002</v>
       </c>
       <c r="C27">
-        <v>5465.8216160000002</v>
+        <f>6701.359146/10</f>
+        <v>670.13591459999998</v>
       </c>
       <c r="D27">
-        <v>11312.988670000001</v>
+        <v>1131.298867</v>
       </c>
       <c r="E27">
-        <v>27273.01281</v>
-      </c>
-      <c r="G27">
-        <v>55.940926380000001</v>
-      </c>
-      <c r="H27">
-        <v>7.8784822889999999</v>
-      </c>
-      <c r="I27">
-        <v>0.53137786300000001</v>
-      </c>
-      <c r="J27">
-        <v>0.23946062000000001</v>
+        <f>28048.02503/10</f>
+        <v>2804.8025029999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28">
-        <v>329.55555559999999</v>
+        <v>32.955555560000001</v>
       </c>
       <c r="C28">
-        <v>4674.2328170000001</v>
+        <v>467.42328170000002</v>
       </c>
       <c r="D28">
-        <v>10641.40777</v>
+        <v>1064.1407770000001</v>
       </c>
       <c r="E28">
-        <v>15981.319380000001</v>
-      </c>
-      <c r="G28">
-        <v>123.0314961</v>
-      </c>
-      <c r="H28">
-        <v>8.8110384689999997</v>
-      </c>
-      <c r="I28">
-        <v>0.56299776000000001</v>
-      </c>
-      <c r="J28">
-        <v>0.23004402600000001</v>
+        <v>1598.131938</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29">
-        <v>42.666666669999998</v>
+        <v>4.266666667</v>
       </c>
       <c r="C29">
-        <v>1114.3515110000001</v>
+        <v>111.43515110000001</v>
       </c>
       <c r="D29">
-        <v>13886.43771</v>
+        <v>1388.643771</v>
       </c>
       <c r="E29">
-        <v>15695.749980000001</v>
-      </c>
-      <c r="G29">
-        <v>65.651260500000006</v>
-      </c>
-      <c r="H29">
-        <v>1.9678376609999999</v>
-      </c>
-      <c r="I29">
-        <v>0.65536382500000001</v>
-      </c>
-      <c r="J29">
-        <v>0.22316855599999999</v>
+        <v>1569.5749980000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30">
-        <v>943.44444439999995</v>
+        <v>94.34444443999999</v>
       </c>
       <c r="C30">
-        <v>1485.2678350000001</v>
+        <v>148.52678350000002</v>
       </c>
       <c r="D30">
-        <v>11523.65301</v>
+        <v>1152.365301</v>
       </c>
       <c r="E30">
-        <v>17170.193289999999</v>
+        <v>1717.019329</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>774.55555560000005</v>
+        <v>77.455555560000008</v>
       </c>
       <c r="C31">
-        <v>3583.9184780000001</v>
+        <v>358.39184779999999</v>
       </c>
       <c r="D31">
-        <v>10207.70055</v>
+        <v>1020.770055</v>
       </c>
       <c r="E31">
-        <v>17986.177169999999</v>
+        <v>1798.6177169999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32">
-        <v>335.11111110000002</v>
+        <v>33.511111110000002</v>
       </c>
       <c r="C32">
-        <v>1292.9708889999999</v>
+        <v>129.29708890000001</v>
       </c>
       <c r="D32">
-        <v>10844.99567</v>
+        <v>1084.4995670000001</v>
       </c>
       <c r="E32">
-        <v>17822.036700000001</v>
+        <v>1782.2036700000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
       <c r="B33">
-        <v>677.66666669999995</v>
+        <v>67.766666669999992</v>
       </c>
       <c r="C33">
-        <v>6034.1718499999997</v>
+        <v>603.41718500000002</v>
       </c>
       <c r="D33">
-        <v>9270.4825469999996</v>
+        <v>927.04825469999992</v>
       </c>
       <c r="E33">
-        <v>18371.368900000001</v>
+        <v>1837.1368900000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
